--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277951.934179392</v>
+        <v>1273939.324165399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>152.3296141367694</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>111.2136437853962</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>57.81578986397352</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>345.6001578846913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>38.35260266107566</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103589</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>109.6870817625081</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474791</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>168.2049238467878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>74.2006476487435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>30.9719158638699</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890432</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>237.789722109268</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.879692121444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>81.27859867330054</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>1.839588425940237</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>137.9792024346624</v>
+        <v>179.0209726907674</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.6572696514548</v>
+        <v>2343.707767180343</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>2174.771584252436</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>2024.6549448401</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>1876.741851257707</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U4" t="n">
-        <v>1401.505034560203</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V4" t="n">
-        <v>1401.505034560203</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W4" t="n">
-        <v>1112.087864523242</v>
+        <v>2946.358194329738</v>
       </c>
       <c r="X4" t="n">
-        <v>884.0983136252247</v>
+        <v>2718.368643431721</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.3057344816946</v>
+        <v>2497.576064288191</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2308.470254646116</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C5" t="n">
-        <v>1939.507737705704</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1581.242039098954</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646116</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1696.868661227364</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1696.868661227364</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.451491190403</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1179.461940292386</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>958.6693611488557</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1513.842048484845</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1343.938085003241</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876627</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876627</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>580.8993044876627</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>580.8993044876627</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>434.0093569897523</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>266.8132577046322</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>125.1014265468303</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5478,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614325</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179024</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,7 +6220,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,46 +6229,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510509</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306004</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378097</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.716550965761</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383368</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7496,19 +7496,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2307.590151828076</v>
+        <v>2199.088114488453</v>
       </c>
       <c r="T43" t="n">
-        <v>2307.590151828076</v>
+        <v>1979.486649511395</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>1690.411422855592</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1435.726934649706</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1146.309764612745</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>918.3202137147275</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.9838267405007</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>50.29392045469565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>127.9379057921822</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.39475227997616</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514705</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.04708356698217</v>
+        <v>2.005313310877199</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.4693302300315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737779</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.3568737783</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26346,16 +26346,16 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140035</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26527,43 +26527,43 @@
         <v>291287.3345089704</v>
       </c>
       <c r="D6" t="n">
-        <v>291287.3345089704</v>
+        <v>291287.3345089705</v>
       </c>
       <c r="E6" t="n">
-        <v>43536.21610588634</v>
+        <v>43188.83685152933</v>
       </c>
       <c r="F6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588843</v>
       </c>
       <c r="G6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="H6" t="n">
-        <v>368948.6779132415</v>
+        <v>368601.2986588844</v>
       </c>
       <c r="I6" t="n">
-        <v>368948.6779132416</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="J6" t="n">
-        <v>151417.4755159636</v>
+        <v>151070.096261607</v>
       </c>
       <c r="K6" t="n">
-        <v>368948.6779132416</v>
+        <v>368601.2986588845</v>
       </c>
       <c r="L6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588844</v>
       </c>
       <c r="M6" t="n">
-        <v>283893.6499777296</v>
+        <v>283546.2707233728</v>
       </c>
       <c r="N6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588844</v>
       </c>
       <c r="O6" t="n">
-        <v>368948.6779132415</v>
+        <v>368601.2986588843</v>
       </c>
       <c r="P6" t="n">
-        <v>368948.6779132414</v>
+        <v>368601.2986588844</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>27.50236604516792</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>174.9981944202167</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>307.457101907034</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>36.33021218757051</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>247.8592355445372</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112259</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.0651767076268</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>27.38138722869013</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>57.5047315422494</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-6.032981521760424e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>569.57231719539</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,13 +32557,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32572,7 +32572,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789102</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9760727509455</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955769</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273939.324165399</v>
+        <v>1275699.854468184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>95.92502041856072</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.3296141367694</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>128.6094386176762</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>57.81578986397352</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347168</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>191.7041177524629</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.1675620474791</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>35.00179869008806</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>74.2006476487435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3244002084041</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30.9719158638699</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.08838020946239</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.63824106824953</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>81.27859867330054</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>26.80026191613516</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.14989839348819</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>179.0209726907674</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.707767180343</v>
+        <v>2158.000360828907</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252436</v>
+        <v>1989.064177901</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.6549448401</v>
+        <v>1838.947538488664</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257707</v>
+        <v>1838.947538488664</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>1692.057590990754</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
         <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
         <v>1713.933205348673</v>
@@ -4500,40 +4500,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
         <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>2567.638376557164</v>
       </c>
       <c r="W4" t="n">
-        <v>2946.358194329738</v>
+        <v>2567.638376557164</v>
       </c>
       <c r="X4" t="n">
-        <v>2718.368643431721</v>
+        <v>2339.648825659146</v>
       </c>
       <c r="Y4" t="n">
-        <v>2497.576064288191</v>
+        <v>2339.648825659146</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2034.604709474941</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450752</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474941</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943746</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943746</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943746</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3021.67463015398</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1891.939195876283</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1637.254707670396</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557276</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278207</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859673</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="14">
@@ -5269,55 +5269,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876627</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876627</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876627</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>580.8993044876627</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>434.0093569897523</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>266.8132577046322</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>125.1014265468303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614325</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179024</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2393.338457106056</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2393.338457106056</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2104.263230450254</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>282.8695714929399</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5477693179085</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4311299055728</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5180363231797</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6280888252693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.7243904253734</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2199.088114488453</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1979.486649511395</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1690.411422855592</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1435.726934649706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1146.309764612745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>918.3202137147275</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.9838267405007</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.3852551806331</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>50.29392045469565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>127.9379057921822</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.7828069546817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>198.909393472902</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.005313310877199</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941637.3568737779</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26331,13 +26331,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26346,13 +26346,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="N2" t="n">
-        <v>484287.9598140036</v>
-      </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140035</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-1037457.411218622</v>
       </c>
       <c r="C6" t="n">
+        <v>291287.3345089703</v>
+      </c>
+      <c r="D6" t="n">
         <v>291287.3345089704</v>
       </c>
-      <c r="D6" t="n">
-        <v>291287.3345089705</v>
-      </c>
       <c r="E6" t="n">
-        <v>43188.83685152933</v>
+        <v>43501.47818045078</v>
       </c>
       <c r="F6" t="n">
-        <v>368601.2986588843</v>
+        <v>368913.9399878055</v>
       </c>
       <c r="G6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="H6" t="n">
-        <v>368601.2986588844</v>
+        <v>368913.9399878056</v>
       </c>
       <c r="I6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878059</v>
       </c>
       <c r="J6" t="n">
-        <v>151070.096261607</v>
+        <v>151382.7375905282</v>
       </c>
       <c r="K6" t="n">
-        <v>368601.2986588845</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="L6" t="n">
-        <v>368601.2986588844</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="M6" t="n">
-        <v>283546.2707233728</v>
+        <v>283858.9120522938</v>
       </c>
       <c r="N6" t="n">
-        <v>368601.2986588844</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="O6" t="n">
-        <v>368601.2986588843</v>
+        <v>368913.9399878056</v>
       </c>
       <c r="P6" t="n">
-        <v>368601.2986588844</v>
+        <v>368913.9399878056</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>290.3129182374929</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.50236604516792</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>37.41636964135199</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>307.457101907034</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112259</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.2138523871572</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>27.38138722869013</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>251.2100395155248</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-6.032981521760424e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>575.5951359912051</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558027</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>433.4611020691868</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113583</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>368.0351523183239</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
